--- a/fromDB.xlsx
+++ b/fromDB.xlsx
@@ -61,7 +61,7 @@
     <t>89991234568</t>
   </si>
   <si>
-    <t>2024-02-07</t>
+    <t>2024-02-13</t>
   </si>
   <si>
     <t>Сбер</t>
